--- a/Python/bulle/opti_bulle.xlsx
+++ b/Python/bulle/opti_bulle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.roudninski\bulle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\04 - TRAINEES\2024 Samuel ROUDNINSKI\R&amp;D thickness optimisation\Report\latex\Python\bulle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAE69A5-88D0-4FDE-8197-BAE99E4CD905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E1EB9F-F097-42BE-BE0B-912FA86C6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77AC4B22-E0DB-4D58-A8CE-4E77DD4C593C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77AC4B22-E0DB-4D58-A8CE-4E77DD4C593C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>bulle</t>
   </si>
@@ -63,6 +63,39 @@
   </si>
   <si>
     <t>slash</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X coupé</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>multi plus</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -434,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C71B7E-9735-4DDA-999E-A1D09E0429A8}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +494,14 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,8 +521,14 @@
         <f>E2*B2/1000</f>
         <v>2.1028753199999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -500,11 +545,17 @@
         <v>30.075690000000002</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F60" si="0">E3*B3/1000</f>
+        <f t="shared" ref="F3:F49" si="0">E3*B3/1000</f>
         <v>1.8045414</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -525,13 +576,19 @@
         <f t="shared" si="0"/>
         <v>1.5059734499999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B14" si="1">B4-10</f>
+        <f t="shared" ref="B5:B13" si="1">B4-10</f>
         <v>40</v>
       </c>
       <c r="C5">
@@ -547,8 +604,14 @@
         <f t="shared" si="0"/>
         <v>1.2081792</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -569,8 +632,14 @@
         <f t="shared" si="0"/>
         <v>0.91335675000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -590,8 +659,14 @@
         <f t="shared" si="0"/>
         <v>0.77039544999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -612,8 +687,14 @@
         <f t="shared" si="0"/>
         <v>0.70019246000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -633,8 +714,14 @@
         <f t="shared" si="0"/>
         <v>2.1073447500000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -654,8 +741,14 @@
         <f t="shared" si="0"/>
         <v>1.81107204</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -676,8 +769,14 @@
         <f t="shared" si="0"/>
         <v>1.5139580000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -698,8 +797,14 @@
         <f t="shared" si="0"/>
         <v>1.2163638799999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -720,8 +825,14 @@
         <f t="shared" si="0"/>
         <v>0.91920371999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -741,8 +852,14 @@
         <f t="shared" si="0"/>
         <v>0.77207439999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -763,8 +880,14 @@
         <f t="shared" si="0"/>
         <v>0.62598271999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -784,8 +907,14 @@
         <f t="shared" si="0"/>
         <v>0.48396560999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -805,8 +934,14 @@
         <f t="shared" si="0"/>
         <v>2.1029184399999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -826,8 +961,14 @@
         <f t="shared" si="0"/>
         <v>1.80462408</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -848,8 +989,14 @@
         <f t="shared" si="0"/>
         <v>1.5063135999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -870,8 +1017,14 @@
         <f t="shared" si="0"/>
         <v>1.21127776</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -879,24 +1032,54 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="C21">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>1416</v>
+      </c>
+      <c r="E21">
+        <v>30.809515000000001</v>
+      </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92428545000000006</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
         <v>25</v>
       </c>
+      <c r="C22">
+        <v>265</v>
+      </c>
+      <c r="D22">
+        <v>1264</v>
+      </c>
+      <c r="E22">
+        <v>31.493753999999999</v>
+      </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78734384999999996</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -904,240 +1087,766 @@
         <f>B21-10</f>
         <v>20</v>
       </c>
+      <c r="C23">
+        <v>676</v>
+      </c>
+      <c r="D23">
+        <v>1599</v>
+      </c>
+      <c r="E23">
+        <v>37.187837999999999</v>
+      </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74375676000000002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1495</v>
+      </c>
+      <c r="E24">
+        <v>30.075742000000002</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.1053019400000004</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>A24</f>
+        <v>X</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+      <c r="D25">
+        <v>1491</v>
+      </c>
+      <c r="E25">
+        <v>30.134205000000001</v>
+      </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.8080523000000002</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" ref="A26:A30" si="3">A25</f>
+        <v>X</v>
+      </c>
+      <c r="B26">
+        <f>B25-10</f>
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>88</v>
+      </c>
+      <c r="D26">
+        <v>1493</v>
+      </c>
+      <c r="E26">
+        <v>30.197641999999998</v>
+      </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.5098820999999998</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:B28" si="4">B26-10</f>
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>1471</v>
+      </c>
+      <c r="E27">
+        <v>30.305996</v>
+      </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2122398400000001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>1270</v>
+      </c>
+      <c r="E28">
+        <v>30.691562999999999</v>
+      </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92074688999999998</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>189</v>
+      </c>
+      <c r="D29">
+        <v>1099</v>
+      </c>
+      <c r="E29">
+        <v>31.415109999999999</v>
+      </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78537774999999999</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
+      <c r="B30">
+        <f>B28-10</f>
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>317</v>
+      </c>
+      <c r="D30">
+        <v>1183</v>
+      </c>
+      <c r="E30">
+        <v>33.463881000000001</v>
+      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66927762000000002</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>1493</v>
+      </c>
+      <c r="E31">
+        <v>30.072051999999999</v>
+      </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.1050436399999999</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>A31</f>
+        <v>X coupé</v>
+      </c>
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>1494</v>
+      </c>
+      <c r="E32">
+        <v>30.131817999999999</v>
+      </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.8079090799999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A37" si="5">A32</f>
+        <v>X coupé</v>
+      </c>
+      <c r="B33">
+        <f>B32-10</f>
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>1495</v>
+      </c>
+      <c r="E33">
+        <v>30.221295000000001</v>
+      </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.5110647500000001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="5"/>
+        <v>X coupé</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B35" si="6">B33-10</f>
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>142</v>
+      </c>
+      <c r="D34">
+        <v>1495</v>
+      </c>
+      <c r="E34">
+        <v>30.372194</v>
+      </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.2148877600000001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="5"/>
+        <v>X coupé</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>220</v>
+      </c>
+      <c r="D35">
+        <v>1495</v>
+      </c>
+      <c r="E35">
+        <v>30.882930999999999</v>
+      </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.92648792999999996</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="5"/>
+        <v>X coupé</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>326</v>
+      </c>
+      <c r="D36">
+        <v>1484</v>
+      </c>
+      <c r="E36">
+        <v>31.922491999999998</v>
+      </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.79806229999999989</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="5"/>
+        <v>X coupé</v>
+      </c>
+      <c r="B37">
+        <f>B35-10</f>
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>627</v>
+      </c>
+      <c r="D37">
+        <v>1485</v>
+      </c>
+      <c r="E37">
+        <v>36.547131999999998</v>
+      </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.73094263999999998</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>132</v>
+      </c>
+      <c r="D38">
+        <v>1970</v>
+      </c>
+      <c r="E38">
+        <v>30.260325000000002</v>
+      </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2.1182227499999997</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>A38</f>
+        <v>plus</v>
+      </c>
+      <c r="B39">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>186</v>
+      </c>
+      <c r="D39">
+        <v>2000</v>
+      </c>
+      <c r="E39">
+        <v>30.494342</v>
+      </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.82966052</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" ref="A40:A43" si="7">A39</f>
+        <v>plus</v>
+      </c>
+      <c r="B40">
+        <f>B39-10</f>
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>292</v>
+      </c>
+      <c r="D40">
+        <v>1990</v>
+      </c>
+      <c r="E40">
+        <v>31.209444000000001</v>
+      </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.5604722000000002</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="7"/>
+        <v>plus</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B42" si="8">B40-10</f>
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>325</v>
+      </c>
+      <c r="D41">
+        <v>1977</v>
+      </c>
+      <c r="E41">
+        <v>31.496265000000001</v>
+      </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.2598506</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="7"/>
+        <v>plus</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>513</v>
+      </c>
+      <c r="D42">
+        <v>1993</v>
+      </c>
+      <c r="E42">
+        <v>33.613822999999996</v>
+      </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.0084146899999999</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="7"/>
+        <v>plus</v>
+      </c>
+      <c r="B43">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>690</v>
+      </c>
+      <c r="D43">
+        <v>1991</v>
+      </c>
+      <c r="E43">
+        <v>36.363770000000002</v>
+      </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.9090942500000001</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>89</v>
+      </c>
+      <c r="D44">
+        <v>1991</v>
+      </c>
+      <c r="E44">
+        <v>30.124227000000001</v>
+      </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2.1086958899999999</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>A44</f>
+        <v>multi plus</v>
+      </c>
+      <c r="B45">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>126</v>
+      </c>
+      <c r="D45">
+        <v>1993</v>
+      </c>
+      <c r="E45">
+        <v>30.260869</v>
+      </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.8156521399999999</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" ref="A46:A49" si="9">A45</f>
+        <v>multi plus</v>
+      </c>
+      <c r="B46">
+        <f>B45-10</f>
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>140</v>
+      </c>
+      <c r="D46">
+        <v>1630</v>
+      </c>
+      <c r="E46">
+        <v>30.378236999999999</v>
+      </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.5189118500000001</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="9"/>
+        <v>multi plus</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47:B48" si="10">B46-10</f>
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>215</v>
+      </c>
+      <c r="D47">
+        <v>1666</v>
+      </c>
+      <c r="E47">
+        <v>30.844055999999998</v>
+      </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1.2337622400000001</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="9"/>
+        <v>multi plus</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>341</v>
+      </c>
+      <c r="D48">
+        <v>1911</v>
+      </c>
+      <c r="E48">
+        <v>31.893052999999998</v>
+      </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+        <v>0.95679158999999991</v>
+      </c>
+      <c r="G48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="9"/>
+        <v>multi plus</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>511</v>
+      </c>
+      <c r="D49">
+        <v>1905</v>
+      </c>
+      <c r="E49">
+        <v>34.170231000000001</v>
+      </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.85425577500000005</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>